--- a/TestAutomation/DataAccess/TestData.xlsx
+++ b/TestAutomation/DataAccess/TestData.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>a@a.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Key</t>
   </si>
@@ -25,7 +22,49 @@
     <t>User</t>
   </si>
   <si>
-    <t>Default</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>LeaderName</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>gap-automation-test@mailinator.com</t>
+  </si>
+  <si>
+    <t>Nelson Duarte</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -378,28 +417,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>1234567890</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>2014</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestAutomation/DataAccess/TestData.xlsx
+++ b/TestAutomation/DataAccess/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Key</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>jsmith@gap.co</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +483,9 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
@@ -505,6 +511,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
